--- a/Royal Match_Test Case.xlsx
+++ b/Royal Match_Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112905BF-E092-4EDA-86BB-203A03576147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F9F37-68BE-408B-9F8C-E9D846C25D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
@@ -644,6 +644,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,21 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,28 +990,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399DC24-7DCE-4FAA-9CB5-5462B70B7A25}">
   <dimension ref="B2:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="1.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1067,44 +1067,44 @@
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1114,77 +1114,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="7">
         <v>11</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
         <v>12</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="B20" s="7">
         <v>13</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1204,66 +1204,66 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="7">
         <v>14</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="7">
         <v>15</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="7">
         <v>16</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="7">
         <v>17</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="7">
         <v>18</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="7">
         <v>19</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1274,73 +1274,73 @@
       <c r="B27" s="7">
         <v>20</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
         <v>21</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="7">
         <v>22</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="7">
         <v>23</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="7">
         <v>24</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" s="7">
         <v>25</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="7">
         <v>26</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -1349,99 +1349,99 @@
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="7">
         <v>27</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="7">
         <v>28</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="7">
         <v>29</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="7">
         <v>30</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="7">
         <v>31</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="7">
         <v>32</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="7">
         <v>33</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="7">
         <v>34</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="7">
         <v>35</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="12" t="s">
         <v>64</v>
       </c>
@@ -1452,95 +1452,95 @@
       <c r="B43" s="7">
         <v>36</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B44" s="7">
         <v>37</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="7">
         <v>38</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="7">
         <v>39</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="7">
         <v>40</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="7">
         <v>41</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="7">
         <v>42</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="7">
         <v>43</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="2:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B51" s="7">
         <v>44</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -1549,55 +1549,55 @@
       <c r="E51" s="4"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B52" s="7">
         <v>45</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="7">
         <v>46</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B54" s="7">
         <v>47</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="7">
         <v>48</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="7">
         <v>49</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D56" s="12" t="s">
@@ -1606,22 +1606,22 @@
       <c r="E56" s="4"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="7">
         <v>50</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="7">
         <v>51</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="12" t="s">
         <v>72</v>
       </c>
@@ -1632,19 +1632,19 @@
       <c r="B59" s="7">
         <v>52</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="7">
         <v>53</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="24" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="4"/>
@@ -1654,62 +1654,62 @@
       <c r="B61" s="7">
         <v>54</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="7">
         <v>55</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="7">
         <v>56</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="7">
         <v>57</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="7">
         <v>58</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="7">
         <v>59</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="12" t="s">
         <v>82</v>
       </c>
@@ -1720,181 +1720,181 @@
       <c r="B67" s="7">
         <v>60</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="17" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="7">
         <v>61</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="7">
         <v>62</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="7">
         <v>63</v>
       </c>
-      <c r="C70" s="22"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="7">
         <v>64</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="7">
         <v>65</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="7">
         <v>66</v>
       </c>
-      <c r="C73" s="22"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B74" s="7">
         <v>67</v>
       </c>
-      <c r="C74" s="22"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="7">
         <v>68</v>
       </c>
-      <c r="C75" s="22"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="7">
         <v>69</v>
       </c>
-      <c r="C76" s="22"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="7">
         <v>70</v>
       </c>
-      <c r="C77" s="22"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="7">
         <v>71</v>
       </c>
-      <c r="C78" s="22"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="7">
         <v>72</v>
       </c>
-      <c r="C79" s="22"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="14"/>
     </row>
-    <row r="80" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="7">
         <v>73</v>
       </c>
-      <c r="C80" s="22"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="7">
         <v>74</v>
       </c>
-      <c r="C81" s="22"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="7">
         <v>75</v>
       </c>
-      <c r="C82" s="22"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="7">
         <v>76</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="15" t="s">
         <v>84</v>
       </c>
